--- a/natmiOut/OldD4/LR-pairs_lrc2p/Sema6b-Plxna2.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Sema6b-Plxna2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>9.94849646570923</v>
+        <v>11.54669533333333</v>
       </c>
       <c r="H2">
-        <v>9.94849646570923</v>
+        <v>34.640086</v>
       </c>
       <c r="I2">
-        <v>0.5966400066727575</v>
+        <v>0.610580659708203</v>
       </c>
       <c r="J2">
-        <v>0.5966400066727575</v>
+        <v>0.6226108401814066</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>39.7665913908851</v>
+        <v>39.92976633333334</v>
       </c>
       <c r="N2">
-        <v>39.7665913908851</v>
+        <v>119.789299</v>
       </c>
       <c r="O2">
-        <v>0.8152232014106131</v>
+        <v>0.7836943683202753</v>
       </c>
       <c r="P2">
-        <v>0.8152232014106131</v>
+        <v>0.8192290241759874</v>
       </c>
       <c r="Q2">
-        <v>395.6177939055235</v>
+        <v>461.0568465821905</v>
       </c>
       <c r="R2">
-        <v>395.6177939055235</v>
+        <v>4149.511619239714</v>
       </c>
       <c r="S2">
-        <v>0.486394776329415</v>
+        <v>0.4785086244185971</v>
       </c>
       <c r="T2">
-        <v>0.486394776329415</v>
+        <v>0.5100608710432053</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>9.94849646570923</v>
+        <v>11.54669533333333</v>
       </c>
       <c r="H3">
-        <v>9.94849646570923</v>
+        <v>34.640086</v>
       </c>
       <c r="I3">
-        <v>0.5966400066727575</v>
+        <v>0.610580659708203</v>
       </c>
       <c r="J3">
-        <v>0.5966400066727575</v>
+        <v>0.6226108401814066</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.7892792392722</v>
+        <v>3.113941333333333</v>
       </c>
       <c r="N3">
-        <v>2.7892792392722</v>
+        <v>9.341823999999999</v>
       </c>
       <c r="O3">
-        <v>0.05718079099907063</v>
+        <v>0.06111676852403306</v>
       </c>
       <c r="P3">
-        <v>0.05718079099907063</v>
+        <v>0.06388795512981353</v>
       </c>
       <c r="Q3">
-        <v>27.74913465377561</v>
+        <v>35.95573186187377</v>
       </c>
       <c r="R3">
-        <v>27.74913465377561</v>
+        <v>323.6015867568639</v>
       </c>
       <c r="S3">
-        <v>0.03411634752323905</v>
+        <v>0.03731671684463764</v>
       </c>
       <c r="T3">
-        <v>0.03411634752323905</v>
+        <v>0.0397773334208452</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>9.94849646570923</v>
+        <v>11.54669533333333</v>
       </c>
       <c r="H4">
-        <v>9.94849646570923</v>
+        <v>34.640086</v>
       </c>
       <c r="I4">
-        <v>0.5966400066727575</v>
+        <v>0.610580659708203</v>
       </c>
       <c r="J4">
-        <v>0.5966400066727575</v>
+        <v>0.6226108401814066</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.224997559232255</v>
+        <v>0.3581776666666667</v>
       </c>
       <c r="N4">
-        <v>0.224997559232255</v>
+        <v>1.074533</v>
       </c>
       <c r="O4">
-        <v>0.004612495668636448</v>
+        <v>0.007029888877422099</v>
       </c>
       <c r="P4">
-        <v>0.004612495668636448</v>
+        <v>0.007348641559667998</v>
       </c>
       <c r="Q4">
-        <v>2.238387422815292</v>
+        <v>4.135768392204222</v>
       </c>
       <c r="R4">
-        <v>2.238387422815292</v>
+        <v>37.22191552983799</v>
       </c>
       <c r="S4">
-        <v>0.002751999446513315</v>
+        <v>0.004292314188451744</v>
       </c>
       <c r="T4">
-        <v>0.002751999446513315</v>
+        <v>0.004575343895656894</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>9.94849646570923</v>
+        <v>11.54669533333333</v>
       </c>
       <c r="H5">
-        <v>9.94849646570923</v>
+        <v>34.640086</v>
       </c>
       <c r="I5">
-        <v>0.5966400066727575</v>
+        <v>0.610580659708203</v>
       </c>
       <c r="J5">
-        <v>0.5966400066727575</v>
+        <v>0.6226108401814066</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>5.99913625856456</v>
+        <v>0.918732</v>
       </c>
       <c r="N5">
-        <v>5.99913625856456</v>
+        <v>2.756196</v>
       </c>
       <c r="O5">
-        <v>0.1229835119216798</v>
+        <v>0.0180317883251564</v>
       </c>
       <c r="P5">
-        <v>0.1229835119216798</v>
+        <v>0.01884939454832071</v>
       </c>
       <c r="Q5">
-        <v>59.68238586563762</v>
+        <v>10.608318496984</v>
       </c>
       <c r="R5">
-        <v>59.68238586563762</v>
+        <v>95.47486647285599</v>
       </c>
       <c r="S5">
-        <v>0.0733768833735902</v>
+        <v>0.01100986121129267</v>
       </c>
       <c r="T5">
-        <v>0.0733768833735902</v>
+        <v>0.01173583737664078</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,55 +779,55 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.40651351108747</v>
+        <v>11.54669533333333</v>
       </c>
       <c r="H6">
-        <v>2.40651351108747</v>
+        <v>34.640086</v>
       </c>
       <c r="I6">
-        <v>0.1443255513295243</v>
+        <v>0.610580659708203</v>
       </c>
       <c r="J6">
-        <v>0.1443255513295243</v>
+        <v>0.6226108401814066</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>39.7665913908851</v>
+        <v>6.630069499999999</v>
       </c>
       <c r="N6">
-        <v>39.7665913908851</v>
+        <v>13.260139</v>
       </c>
       <c r="O6">
-        <v>0.8152232014106131</v>
+        <v>0.1301271859531131</v>
       </c>
       <c r="P6">
-        <v>0.8152232014106131</v>
+        <v>0.09068498458621042</v>
       </c>
       <c r="Q6">
-        <v>95.69883947205965</v>
+        <v>76.55539255532565</v>
       </c>
       <c r="R6">
-        <v>95.69883947205965</v>
+        <v>459.3323553319539</v>
       </c>
       <c r="S6">
-        <v>0.1176575380002066</v>
+        <v>0.0794531430452238</v>
       </c>
       <c r="T6">
-        <v>0.1176575380002066</v>
+        <v>0.05646145444505837</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,55 +841,55 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.40651351108747</v>
+        <v>2.694390666666667</v>
       </c>
       <c r="H7">
-        <v>2.40651351108747</v>
+        <v>8.083171999999999</v>
       </c>
       <c r="I7">
-        <v>0.1443255513295243</v>
+        <v>0.1424773741120295</v>
       </c>
       <c r="J7">
-        <v>0.1443255513295243</v>
+        <v>0.1452845847510546</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.7892792392722</v>
+        <v>39.92976633333334</v>
       </c>
       <c r="N7">
-        <v>2.7892792392722</v>
+        <v>119.789299</v>
       </c>
       <c r="O7">
-        <v>0.05718079099907063</v>
+        <v>0.7836943683202753</v>
       </c>
       <c r="P7">
-        <v>0.05718079099907063</v>
+        <v>0.8192290241759874</v>
       </c>
       <c r="Q7">
-        <v>6.712438175504329</v>
+        <v>107.5863897307142</v>
       </c>
       <c r="R7">
-        <v>6.712438175504329</v>
+        <v>968.277507576428</v>
       </c>
       <c r="S7">
-        <v>0.008252649186399173</v>
+        <v>0.1116587157046585</v>
       </c>
       <c r="T7">
-        <v>0.008252649186399173</v>
+        <v>0.11902134859342</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,55 +903,55 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.40651351108747</v>
+        <v>2.694390666666667</v>
       </c>
       <c r="H8">
-        <v>2.40651351108747</v>
+        <v>8.083171999999999</v>
       </c>
       <c r="I8">
-        <v>0.1443255513295243</v>
+        <v>0.1424773741120295</v>
       </c>
       <c r="J8">
-        <v>0.1443255513295243</v>
+        <v>0.1452845847510546</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.224997559232255</v>
+        <v>3.113941333333333</v>
       </c>
       <c r="N8">
-        <v>0.224997559232255</v>
+        <v>9.341823999999999</v>
       </c>
       <c r="O8">
-        <v>0.004612495668636448</v>
+        <v>0.06111676852403306</v>
       </c>
       <c r="P8">
-        <v>0.004612495668636448</v>
+        <v>0.06388795512981353</v>
       </c>
       <c r="Q8">
-        <v>0.541459666254125</v>
+        <v>8.390174465080888</v>
       </c>
       <c r="R8">
-        <v>0.541459666254125</v>
+        <v>75.51157018572799</v>
       </c>
       <c r="S8">
-        <v>0.0006657009803809984</v>
+        <v>0.008707756693516967</v>
       </c>
       <c r="T8">
-        <v>0.0006657009803809984</v>
+        <v>0.009281935031628968</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,60 +965,60 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.40651351108747</v>
+        <v>2.694390666666667</v>
       </c>
       <c r="H9">
-        <v>2.40651351108747</v>
+        <v>8.083171999999999</v>
       </c>
       <c r="I9">
-        <v>0.1443255513295243</v>
+        <v>0.1424773741120295</v>
       </c>
       <c r="J9">
-        <v>0.1443255513295243</v>
+        <v>0.1452845847510546</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.99913625856456</v>
+        <v>0.3581776666666667</v>
       </c>
       <c r="N9">
-        <v>5.99913625856456</v>
+        <v>1.074533</v>
       </c>
       <c r="O9">
-        <v>0.1229835119216798</v>
+        <v>0.007029888877422099</v>
       </c>
       <c r="P9">
-        <v>0.1229835119216798</v>
+        <v>0.007348641559667998</v>
       </c>
       <c r="Q9">
-        <v>14.43700246109035</v>
+        <v>0.9650705620751111</v>
       </c>
       <c r="R9">
-        <v>14.43700246109035</v>
+        <v>8.685635058675999</v>
       </c>
       <c r="S9">
-        <v>0.01774966316253757</v>
+        <v>0.001001600107554463</v>
       </c>
       <c r="T9">
-        <v>0.01774966316253757</v>
+        <v>0.001067644337480707</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.25680318784067</v>
+        <v>2.694390666666667</v>
       </c>
       <c r="H10">
-        <v>1.25680318784067</v>
+        <v>8.083171999999999</v>
       </c>
       <c r="I10">
-        <v>0.07537410954150071</v>
+        <v>0.1424773741120295</v>
       </c>
       <c r="J10">
-        <v>0.07537410954150071</v>
+        <v>0.1452845847510546</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>39.7665913908851</v>
+        <v>0.918732</v>
       </c>
       <c r="N10">
-        <v>39.7665913908851</v>
+        <v>2.756196</v>
       </c>
       <c r="O10">
-        <v>0.8152232014106131</v>
+        <v>0.0180317883251564</v>
       </c>
       <c r="P10">
-        <v>0.8152232014106131</v>
+        <v>0.01884939454832071</v>
       </c>
       <c r="Q10">
-        <v>49.97877882962173</v>
+        <v>2.475422925968</v>
       </c>
       <c r="R10">
-        <v>49.97877882962173</v>
+        <v>22.278806333712</v>
       </c>
       <c r="S10">
-        <v>0.06144672288389645</v>
+        <v>0.002569121851112234</v>
       </c>
       <c r="T10">
-        <v>0.06144672288389645</v>
+        <v>0.002738526459761567</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,55 +1089,55 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.25680318784067</v>
+        <v>2.694390666666667</v>
       </c>
       <c r="H11">
-        <v>1.25680318784067</v>
+        <v>8.083171999999999</v>
       </c>
       <c r="I11">
-        <v>0.07537410954150071</v>
+        <v>0.1424773741120295</v>
       </c>
       <c r="J11">
-        <v>0.07537410954150071</v>
+        <v>0.1452845847510546</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.7892792392722</v>
+        <v>6.630069499999999</v>
       </c>
       <c r="N11">
-        <v>2.7892792392722</v>
+        <v>13.260139</v>
       </c>
       <c r="O11">
-        <v>0.05718079099907063</v>
+        <v>0.1301271859531131</v>
       </c>
       <c r="P11">
-        <v>0.05718079099907063</v>
+        <v>0.09068498458621042</v>
       </c>
       <c r="Q11">
-        <v>3.5055750396951</v>
+        <v>17.86399738015133</v>
       </c>
       <c r="R11">
-        <v>3.5055750396951</v>
+        <v>107.183984280908</v>
       </c>
       <c r="S11">
-        <v>0.004309951204433608</v>
+        <v>0.01854017975518732</v>
       </c>
       <c r="T11">
-        <v>0.004309951204433608</v>
+        <v>0.01317513032876337</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,55 +1151,55 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.25680318784067</v>
+        <v>1.261376666666667</v>
       </c>
       <c r="H12">
-        <v>1.25680318784067</v>
+        <v>3.78413</v>
       </c>
       <c r="I12">
-        <v>0.07537410954150071</v>
+        <v>0.06670065980268071</v>
       </c>
       <c r="J12">
-        <v>0.07537410954150071</v>
+        <v>0.06801485304209887</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.224997559232255</v>
+        <v>39.92976633333334</v>
       </c>
       <c r="N12">
-        <v>0.224997559232255</v>
+        <v>119.789299</v>
       </c>
       <c r="O12">
-        <v>0.004612495668636448</v>
+        <v>0.7836943683202753</v>
       </c>
       <c r="P12">
-        <v>0.004612495668636448</v>
+        <v>0.8192290241759874</v>
       </c>
       <c r="Q12">
-        <v>0.2827776496994681</v>
+        <v>50.3664755583189</v>
       </c>
       <c r="R12">
-        <v>0.2827776496994681</v>
+        <v>453.2982800248701</v>
       </c>
       <c r="S12">
-        <v>0.0003476627537875012</v>
+        <v>0.05227293145060743</v>
       </c>
       <c r="T12">
-        <v>0.0003476627537875012</v>
+        <v>0.05571974168715185</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,60 +1213,60 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.25680318784067</v>
+        <v>1.261376666666667</v>
       </c>
       <c r="H13">
-        <v>1.25680318784067</v>
+        <v>3.78413</v>
       </c>
       <c r="I13">
-        <v>0.07537410954150071</v>
+        <v>0.06670065980268071</v>
       </c>
       <c r="J13">
-        <v>0.07537410954150071</v>
+        <v>0.06801485304209887</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>5.99913625856456</v>
+        <v>3.113941333333333</v>
       </c>
       <c r="N13">
-        <v>5.99913625856456</v>
+        <v>9.341823999999999</v>
       </c>
       <c r="O13">
-        <v>0.1229835119216798</v>
+        <v>0.06111676852403306</v>
       </c>
       <c r="P13">
-        <v>0.1229835119216798</v>
+        <v>0.06388795512981353</v>
       </c>
       <c r="Q13">
-        <v>7.539733574054489</v>
+        <v>3.927852939235556</v>
       </c>
       <c r="R13">
-        <v>7.539733574054489</v>
+        <v>35.35067645311999</v>
       </c>
       <c r="S13">
-        <v>0.009269772699383155</v>
+        <v>0.004076528785560714</v>
       </c>
       <c r="T13">
-        <v>0.009269772699383155</v>
+        <v>0.004345329879314474</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,122 +1275,122 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.12480236266935</v>
+        <v>1.261376666666667</v>
       </c>
       <c r="H14">
-        <v>2.12480236266935</v>
+        <v>3.78413</v>
       </c>
       <c r="I14">
-        <v>0.1274305218091017</v>
+        <v>0.06670065980268071</v>
       </c>
       <c r="J14">
-        <v>0.1274305218091017</v>
+        <v>0.06801485304209887</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>39.7665913908851</v>
+        <v>0.3581776666666667</v>
       </c>
       <c r="N14">
-        <v>39.7665913908851</v>
+        <v>1.074533</v>
       </c>
       <c r="O14">
-        <v>0.8152232014106131</v>
+        <v>0.007029888877422099</v>
       </c>
       <c r="P14">
-        <v>0.8152232014106131</v>
+        <v>0.007348641559667998</v>
       </c>
       <c r="Q14">
-        <v>84.49614734265928</v>
+        <v>0.4517969512544445</v>
       </c>
       <c r="R14">
-        <v>84.49614734265928</v>
+        <v>4.06617256129</v>
       </c>
       <c r="S14">
-        <v>0.1038843179466409</v>
+        <v>0.0004688982264635804</v>
       </c>
       <c r="T14">
-        <v>0.1038843179466409</v>
+        <v>0.0004998167757398791</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.12480236266935</v>
+        <v>1.261376666666667</v>
       </c>
       <c r="H15">
-        <v>2.12480236266935</v>
+        <v>3.78413</v>
       </c>
       <c r="I15">
-        <v>0.1274305218091017</v>
+        <v>0.06670065980268071</v>
       </c>
       <c r="J15">
-        <v>0.1274305218091017</v>
+        <v>0.06801485304209887</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M15">
-        <v>2.7892792392722</v>
+        <v>0.918732</v>
       </c>
       <c r="N15">
-        <v>2.7892792392722</v>
+        <v>2.756196</v>
       </c>
       <c r="O15">
-        <v>0.05718079099907063</v>
+        <v>0.0180317883251564</v>
       </c>
       <c r="P15">
-        <v>0.05718079099907063</v>
+        <v>0.01884939454832071</v>
       </c>
       <c r="Q15">
-        <v>5.926667117750138</v>
+        <v>1.15886710772</v>
       </c>
       <c r="R15">
-        <v>5.926667117750138</v>
+        <v>10.42980396948</v>
       </c>
       <c r="S15">
-        <v>0.00728657803446876</v>
+        <v>0.001202732178710207</v>
       </c>
       <c r="T15">
-        <v>0.00728657803446876</v>
+        <v>0.001282038800136573</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1399,55 +1399,55 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.12480236266935</v>
+        <v>1.261376666666667</v>
       </c>
       <c r="H16">
-        <v>2.12480236266935</v>
+        <v>3.78413</v>
       </c>
       <c r="I16">
-        <v>0.1274305218091017</v>
+        <v>0.06670065980268071</v>
       </c>
       <c r="J16">
-        <v>0.1274305218091017</v>
+        <v>0.06801485304209887</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.224997559232255</v>
+        <v>6.630069499999999</v>
       </c>
       <c r="N16">
-        <v>0.224997559232255</v>
+        <v>13.260139</v>
       </c>
       <c r="O16">
-        <v>0.004612495668636448</v>
+        <v>0.1301271859531131</v>
       </c>
       <c r="P16">
-        <v>0.004612495668636448</v>
+        <v>0.09068498458621042</v>
       </c>
       <c r="Q16">
-        <v>0.4780753454515325</v>
+        <v>8.363014965678333</v>
       </c>
       <c r="R16">
-        <v>0.4780753454515325</v>
+        <v>50.17808979407</v>
       </c>
       <c r="S16">
-        <v>0.0005877727298965642</v>
+        <v>0.008679569161338769</v>
       </c>
       <c r="T16">
-        <v>0.0005877727298965642</v>
+        <v>0.006167925899756102</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,60 +1461,60 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.12480236266935</v>
+        <v>2.312340666666667</v>
       </c>
       <c r="H17">
-        <v>2.12480236266935</v>
+        <v>6.937022000000001</v>
       </c>
       <c r="I17">
-        <v>0.1274305218091017</v>
+        <v>0.1222748543167681</v>
       </c>
       <c r="J17">
-        <v>0.1274305218091017</v>
+        <v>0.1246840176949013</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>5.99913625856456</v>
+        <v>39.92976633333334</v>
       </c>
       <c r="N17">
-        <v>5.99913625856456</v>
+        <v>119.789299</v>
       </c>
       <c r="O17">
-        <v>0.1229835119216798</v>
+        <v>0.7836943683202753</v>
       </c>
       <c r="P17">
-        <v>0.1229835119216798</v>
+        <v>0.8192290241759874</v>
       </c>
       <c r="Q17">
-        <v>12.74697889617334</v>
+        <v>92.33122250306425</v>
       </c>
       <c r="R17">
-        <v>12.74697889617334</v>
+        <v>830.9810025275782</v>
       </c>
       <c r="S17">
-        <v>0.01567185309809555</v>
+        <v>0.09582611471523328</v>
       </c>
       <c r="T17">
-        <v>0.01567185309809555</v>
+        <v>0.1021447661465355</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -1523,60 +1523,60 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.937587265744901</v>
+        <v>2.312340666666667</v>
       </c>
       <c r="H18">
-        <v>0.937587265744901</v>
+        <v>6.937022000000001</v>
       </c>
       <c r="I18">
-        <v>0.05622981064711574</v>
+        <v>0.1222748543167681</v>
       </c>
       <c r="J18">
-        <v>0.05622981064711574</v>
+        <v>0.1246840176949013</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>39.7665913908851</v>
+        <v>3.113941333333333</v>
       </c>
       <c r="N18">
-        <v>39.7665913908851</v>
+        <v>9.341823999999999</v>
       </c>
       <c r="O18">
-        <v>0.8152232014106131</v>
+        <v>0.06111676852403306</v>
       </c>
       <c r="P18">
-        <v>0.8152232014106131</v>
+        <v>0.06388795512981353</v>
       </c>
       <c r="Q18">
-        <v>37.28464969017468</v>
+        <v>7.200493178680889</v>
       </c>
       <c r="R18">
-        <v>37.28464969017468</v>
+        <v>64.804438608128</v>
       </c>
       <c r="S18">
-        <v>0.04583984625045427</v>
+        <v>0.007473043967587783</v>
       </c>
       <c r="T18">
-        <v>0.04583984625045427</v>
+        <v>0.007965806927896729</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -1585,60 +1585,60 @@
         <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.937587265744901</v>
+        <v>2.312340666666667</v>
       </c>
       <c r="H19">
-        <v>0.937587265744901</v>
+        <v>6.937022000000001</v>
       </c>
       <c r="I19">
-        <v>0.05622981064711574</v>
+        <v>0.1222748543167681</v>
       </c>
       <c r="J19">
-        <v>0.05622981064711574</v>
+        <v>0.1246840176949013</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>2.7892792392722</v>
+        <v>0.3581776666666667</v>
       </c>
       <c r="N19">
-        <v>2.7892792392722</v>
+        <v>1.074533</v>
       </c>
       <c r="O19">
-        <v>0.05718079099907063</v>
+        <v>0.007029888877422099</v>
       </c>
       <c r="P19">
-        <v>0.05718079099907063</v>
+        <v>0.007348641559667998</v>
       </c>
       <c r="Q19">
-        <v>2.615192695348239</v>
+        <v>0.8282287845251113</v>
       </c>
       <c r="R19">
-        <v>2.615192695348239</v>
+        <v>7.454059060726</v>
       </c>
       <c r="S19">
-        <v>0.003215265050530042</v>
+        <v>0.0008595786383498558</v>
       </c>
       <c r="T19">
-        <v>0.003215265050530042</v>
+        <v>0.0009162581542591315</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -1647,60 +1647,60 @@
         <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.937587265744901</v>
+        <v>2.312340666666667</v>
       </c>
       <c r="H20">
-        <v>0.937587265744901</v>
+        <v>6.937022000000001</v>
       </c>
       <c r="I20">
-        <v>0.05622981064711574</v>
+        <v>0.1222748543167681</v>
       </c>
       <c r="J20">
-        <v>0.05622981064711574</v>
+        <v>0.1246840176949013</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M20">
-        <v>0.224997559232255</v>
+        <v>0.918732</v>
       </c>
       <c r="N20">
-        <v>0.224997559232255</v>
+        <v>2.756196</v>
       </c>
       <c r="O20">
-        <v>0.004612495668636448</v>
+        <v>0.0180317883251564</v>
       </c>
       <c r="P20">
-        <v>0.004612495668636448</v>
+        <v>0.01884939454832071</v>
       </c>
       <c r="Q20">
-        <v>0.2109548463598464</v>
+        <v>2.124421365368</v>
       </c>
       <c r="R20">
-        <v>0.2109548463598464</v>
+        <v>19.119792288312</v>
       </c>
       <c r="S20">
-        <v>0.000259359758058069</v>
+        <v>0.002204834290529299</v>
       </c>
       <c r="T20">
-        <v>0.000259359758058069</v>
+        <v>0.002350218243400995</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>25</v>
@@ -1712,52 +1712,362 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.937587265744901</v>
+        <v>2.312340666666667</v>
       </c>
       <c r="H21">
-        <v>0.937587265744901</v>
+        <v>6.937022000000001</v>
       </c>
       <c r="I21">
-        <v>0.05622981064711574</v>
+        <v>0.1222748543167681</v>
       </c>
       <c r="J21">
-        <v>0.05622981064711574</v>
+        <v>0.1246840176949013</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>5.99913625856456</v>
+        <v>6.630069499999999</v>
       </c>
       <c r="N21">
-        <v>5.99913625856456</v>
+        <v>13.260139</v>
       </c>
       <c r="O21">
-        <v>0.1229835119216798</v>
+        <v>0.1301271859531131</v>
       </c>
       <c r="P21">
-        <v>0.1229835119216798</v>
+        <v>0.09068498458621042</v>
       </c>
       <c r="Q21">
-        <v>5.624713761498642</v>
+        <v>15.33097932767634</v>
       </c>
       <c r="R21">
-        <v>5.624713761498642</v>
+        <v>91.985875966058</v>
       </c>
       <c r="S21">
-        <v>0.006915339588073359</v>
+        <v>0.0159112827050679</v>
       </c>
       <c r="T21">
-        <v>0.006915339588073359</v>
+        <v>0.01130696822280891</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1.096204</v>
+      </c>
+      <c r="H22">
+        <v>2.192408</v>
+      </c>
+      <c r="I22">
+        <v>0.05796645206031859</v>
+      </c>
+      <c r="J22">
+        <v>0.03940570433053882</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>39.92976633333334</v>
+      </c>
+      <c r="N22">
+        <v>119.789299</v>
+      </c>
+      <c r="O22">
+        <v>0.7836943683202753</v>
+      </c>
+      <c r="P22">
+        <v>0.8192290241759874</v>
+      </c>
+      <c r="Q22">
+        <v>43.77116957366534</v>
+      </c>
+      <c r="R22">
+        <v>262.627017441992</v>
+      </c>
+      <c r="S22">
+        <v>0.04542798203117889</v>
+      </c>
+      <c r="T22">
+        <v>0.0322822967056748</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1.096204</v>
+      </c>
+      <c r="H23">
+        <v>2.192408</v>
+      </c>
+      <c r="I23">
+        <v>0.05796645206031859</v>
+      </c>
+      <c r="J23">
+        <v>0.03940570433053882</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>3.113941333333333</v>
+      </c>
+      <c r="N23">
+        <v>9.341823999999999</v>
+      </c>
+      <c r="O23">
+        <v>0.06111676852403306</v>
+      </c>
+      <c r="P23">
+        <v>0.06388795512981353</v>
+      </c>
+      <c r="Q23">
+        <v>3.413514945365333</v>
+      </c>
+      <c r="R23">
+        <v>20.481089672192</v>
+      </c>
+      <c r="S23">
+        <v>0.00354272223272995</v>
+      </c>
+      <c r="T23">
+        <v>0.002517549870128163</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1.096204</v>
+      </c>
+      <c r="H24">
+        <v>2.192408</v>
+      </c>
+      <c r="I24">
+        <v>0.05796645206031859</v>
+      </c>
+      <c r="J24">
+        <v>0.03940570433053882</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.3581776666666667</v>
+      </c>
+      <c r="N24">
+        <v>1.074533</v>
+      </c>
+      <c r="O24">
+        <v>0.007029888877422099</v>
+      </c>
+      <c r="P24">
+        <v>0.007348641559667998</v>
+      </c>
+      <c r="Q24">
+        <v>0.3926357909106666</v>
+      </c>
+      <c r="R24">
+        <v>2.355814745464</v>
+      </c>
+      <c r="S24">
+        <v>0.0004074977166024549</v>
+      </c>
+      <c r="T24">
+        <v>0.0002895783965313867</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1.096204</v>
+      </c>
+      <c r="H25">
+        <v>2.192408</v>
+      </c>
+      <c r="I25">
+        <v>0.05796645206031859</v>
+      </c>
+      <c r="J25">
+        <v>0.03940570433053882</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M25">
+        <v>0.918732</v>
+      </c>
+      <c r="N25">
+        <v>2.756196</v>
+      </c>
+      <c r="O25">
+        <v>0.0180317883251564</v>
+      </c>
+      <c r="P25">
+        <v>0.01884939454832071</v>
+      </c>
+      <c r="Q25">
+        <v>1.007117693328</v>
+      </c>
+      <c r="R25">
+        <v>6.042706159968</v>
+      </c>
+      <c r="S25">
+        <v>0.001045238793511991</v>
+      </c>
+      <c r="T25">
+        <v>0.0007427736683807962</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1.096204</v>
+      </c>
+      <c r="H26">
+        <v>2.192408</v>
+      </c>
+      <c r="I26">
+        <v>0.05796645206031859</v>
+      </c>
+      <c r="J26">
+        <v>0.03940570433053882</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>6.630069499999999</v>
+      </c>
+      <c r="N26">
+        <v>13.260139</v>
+      </c>
+      <c r="O26">
+        <v>0.1301271859531131</v>
+      </c>
+      <c r="P26">
+        <v>0.09068498458621042</v>
+      </c>
+      <c r="Q26">
+        <v>7.267908706177999</v>
+      </c>
+      <c r="R26">
+        <v>29.071634824712</v>
+      </c>
+      <c r="S26">
+        <v>0.007543011286295292</v>
+      </c>
+      <c r="T26">
+        <v>0.003573505689823678</v>
       </c>
     </row>
   </sheetData>
